--- a/views/formulir/_exportHitungToExcel.xlsx
+++ b/views/formulir/_exportHitungToExcel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\skp\views\formulir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\myskp\views\formulir\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="225" windowWidth="11355" windowHeight="8070" tabRatio="364" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="225" windowWidth="11355" windowHeight="8070" tabRatio="364"/>
   </bookViews>
   <sheets>
     <sheet name="PENGUKURAN" sheetId="5" r:id="rId1"/>
@@ -1199,6 +1199,176 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1238,21 +1408,225 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1262,359 +1636,82 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1626,15 +1723,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1642,94 +1730,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2555,7 +2555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R293"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -2579,142 +2579,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13" t="s">
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="17" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="17" t="s">
+      <c r="R4" s="87" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="25"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="19" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="90"/>
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="90"/>
       <c r="I5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="19" t="s">
+      <c r="J5" s="84"/>
+      <c r="K5" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="20"/>
+      <c r="L5" s="90"/>
       <c r="M5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="20"/>
+      <c r="O5" s="90"/>
       <c r="P5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="3">
@@ -2726,34 +2726,34 @@
       <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="73">
         <v>4</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="74"/>
       <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="73">
         <v>6</v>
       </c>
-      <c r="H6" s="23"/>
+      <c r="H6" s="74"/>
       <c r="I6" s="2">
         <v>7</v>
       </c>
       <c r="J6" s="2">
         <v>8</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="73">
         <v>9</v>
       </c>
-      <c r="L6" s="23"/>
+      <c r="L6" s="74"/>
       <c r="M6" s="2">
         <v>10</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="73">
         <v>11</v>
       </c>
-      <c r="O6" s="23"/>
+      <c r="O6" s="74"/>
       <c r="P6" s="2">
         <v>12</v>
       </c>
@@ -5004,11 +5004,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="N6:O6"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="B4:B5"/>
@@ -5023,6 +5018,11 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="N5:O5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -5939,790 +5939,790 @@
   <sheetData>
     <row r="1" spans="2:20" ht="13.5" thickBot="1"/>
     <row r="2" spans="2:20" ht="30" customHeight="1" thickBot="1">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30" t="s">
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="33"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="161"/>
     </row>
     <row r="3" spans="2:20" ht="30" customHeight="1" thickBot="1">
-      <c r="B3" s="34"/>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="163"/>
+      <c r="C3" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37">
+      <c r="D3" s="138"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8">
         <f>[1]PENGUKURAN!R23</f>
         <v>78.555555555555557</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="10">
         <v>0.6</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="11">
         <f>F3*H3</f>
         <v>47.133333333333333</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="43"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="140"/>
+      <c r="T3" s="141"/>
     </row>
     <row r="4" spans="2:20" ht="30" customHeight="1" thickBot="1">
-      <c r="B4" s="34"/>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="163"/>
+      <c r="C4" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47">
+      <c r="E4" s="151"/>
+      <c r="F4" s="12">
         <f>'[1]Indikator P.Prilaku'!C17</f>
         <v>87.5</v>
       </c>
-      <c r="G4" s="48" t="str">
+      <c r="G4" s="152" t="str">
         <f>IF(F4&lt;=50,"(Buruk)",IF(F4&lt;=60,"(Sedang)",IF(F4&lt;=75,"(Cukup)",IF(F4&lt;=90.99,"(Baik)","(Sangat Baik)"))))</f>
         <v>(Baik)</v>
       </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="53"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="13"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="16"/>
     </row>
     <row r="5" spans="2:20" ht="30" customHeight="1" thickBot="1">
-      <c r="B5" s="34"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="45" t="s">
+      <c r="B5" s="163"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47">
+      <c r="E5" s="151"/>
+      <c r="F5" s="12">
         <f>'[1]Indikator P.Prilaku'!C35</f>
         <v>80</v>
       </c>
-      <c r="G5" s="48" t="str">
+      <c r="G5" s="152" t="str">
         <f>IF(F5&lt;=50,"(Buruk)",IF(F5&lt;=60,"(Sedang)",IF(F5&lt;=75,"(Cukup)",IF(F5&lt;=90.99,"(Baik)","(Sangat Baik)"))))</f>
         <v>(Baik)</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="50"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="53"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="13"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="16"/>
     </row>
     <row r="6" spans="2:20" ht="30" customHeight="1" thickBot="1">
-      <c r="B6" s="34"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="45" t="s">
+      <c r="B6" s="163"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47">
+      <c r="E6" s="151"/>
+      <c r="F6" s="12">
         <f>'[1]Indikator P.Prilaku'!C50</f>
         <v>85.714285714285708</v>
       </c>
-      <c r="G6" s="48" t="str">
+      <c r="G6" s="152" t="str">
         <f>IF(F6&lt;=50,"(Buruk)",IF(F6&lt;=60,"(Sedang)",IF(F6&lt;=75,"(Cukup)",IF(F6&lt;=90.99,"(Baik)","(Sangat Baik)"))))</f>
         <v>(Baik)</v>
       </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="50"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="53"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="13"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="16"/>
     </row>
     <row r="7" spans="2:20" ht="30" customHeight="1" thickBot="1">
-      <c r="B7" s="34"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="45" t="s">
+      <c r="B7" s="163"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47">
+      <c r="E7" s="151"/>
+      <c r="F7" s="12">
         <f>'[1]Indikator P.Prilaku'!C62</f>
         <v>80</v>
       </c>
-      <c r="G7" s="48" t="str">
+      <c r="G7" s="152" t="str">
         <f>IF(F7&lt;=50,"(Buruk)",IF(F7&lt;=60,"(Sedang)",IF(F7&lt;=75,"(Cukup)",IF(F7&lt;=90.99,"(Baik)","(Sangat Baik)"))))</f>
         <v>(Baik)</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="50"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="53"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="13"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="16"/>
     </row>
     <row r="8" spans="2:20" ht="30" customHeight="1" thickBot="1">
-      <c r="B8" s="34"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="45" t="s">
+      <c r="B8" s="163"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="150" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47">
+      <c r="E8" s="151"/>
+      <c r="F8" s="12">
         <f>'[1]Indikator P.Prilaku'!C75</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="G8" s="48" t="str">
+      <c r="G8" s="152" t="str">
         <f>IF(F8&lt;=50,"(Buruk)",IF(F8&lt;=60,"(Sedang)",IF(F8&lt;=75,"(Cukup)",IF(F8&lt;=90.99,"(Baik)","(Sangat Baik)"))))</f>
         <v>(Baik)</v>
       </c>
-      <c r="H8" s="49"/>
-      <c r="I8" s="50"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="53"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="13"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="16"/>
     </row>
     <row r="9" spans="2:20" ht="30" customHeight="1" thickBot="1">
-      <c r="B9" s="34"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="45" t="s">
+      <c r="B9" s="163"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="55" t="s">
+      <c r="E9" s="151"/>
+      <c r="F9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="48" t="str">
+      <c r="G9" s="152" t="str">
         <f>IF(F9="-","",IF(F9&lt;=50,"(Buruk)",IF(F9&lt;=60,"(Sedang)",IF(F9&lt;=75,"(Cukup)",IF(F9&lt;=90.99,"(Baik)","(Sangat Baik)")))))</f>
         <v/>
       </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="53"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="16"/>
     </row>
     <row r="10" spans="2:20" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="34"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="45" t="s">
+      <c r="B10" s="163"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="56">
+      <c r="E10" s="151"/>
+      <c r="F10" s="18">
         <f>SUM(F4:F9)</f>
         <v>416.54761904761904</v>
       </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="50"/>
-      <c r="K10" s="59" t="s">
+      <c r="G10" s="154"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="13"/>
+      <c r="K10" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="61"/>
+      <c r="L10" s="157"/>
+      <c r="M10" s="157"/>
+      <c r="N10" s="157"/>
+      <c r="O10" s="157"/>
+      <c r="P10" s="157"/>
+      <c r="Q10" s="157"/>
+      <c r="R10" s="157"/>
+      <c r="S10" s="157"/>
+      <c r="T10" s="158"/>
     </row>
     <row r="11" spans="2:20" ht="30" customHeight="1" thickBot="1">
-      <c r="B11" s="34"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="45" t="s">
+      <c r="B11" s="163"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="62">
+      <c r="E11" s="151"/>
+      <c r="F11" s="19">
         <f>IF(F9="-",IF(F9="-",F10/5,F10/6),F10/6)</f>
         <v>83.30952380952381</v>
       </c>
-      <c r="G11" s="48" t="str">
+      <c r="G11" s="152" t="str">
         <f>IF(F11&lt;=50,"(Buruk)",IF(F11&lt;=60,"(Sedang)",IF(F11&lt;=75,"(Cukup)",IF(F11&lt;=90.99,"(Baik)","(Sangat Baik)"))))</f>
         <v>(Baik)</v>
       </c>
-      <c r="H11" s="49"/>
-      <c r="I11" s="50"/>
-      <c r="K11" s="31" t="s">
+      <c r="H11" s="153"/>
+      <c r="I11" s="13"/>
+      <c r="K11" s="159" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="33"/>
+      <c r="L11" s="160"/>
+      <c r="M11" s="160"/>
+      <c r="N11" s="160"/>
+      <c r="O11" s="160"/>
+      <c r="P11" s="160"/>
+      <c r="Q11" s="160"/>
+      <c r="R11" s="160"/>
+      <c r="S11" s="160"/>
+      <c r="T11" s="161"/>
     </row>
     <row r="12" spans="2:20" ht="30" customHeight="1" thickBot="1">
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="35" t="s">
+      <c r="B12" s="164"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="65">
+      <c r="E12" s="138"/>
+      <c r="F12" s="20">
         <f>F11</f>
         <v>83.30952380952381</v>
       </c>
-      <c r="G12" s="66" t="s">
+      <c r="G12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="67">
+      <c r="H12" s="22">
         <v>0.4</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="11">
         <f>F12*H12</f>
         <v>33.323809523809523</v>
       </c>
-      <c r="K12" s="41" t="s">
+      <c r="K12" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="43"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="140"/>
+      <c r="O12" s="140"/>
+      <c r="P12" s="140"/>
+      <c r="Q12" s="140"/>
+      <c r="R12" s="140"/>
+      <c r="S12" s="140"/>
+      <c r="T12" s="141"/>
     </row>
     <row r="13" spans="2:20" ht="30" customHeight="1" thickBot="1">
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="71">
+      <c r="B13" s="142"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="23">
         <f>I12+I3</f>
         <v>80.457142857142856</v>
       </c>
-      <c r="K13" s="51"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="53"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="16"/>
     </row>
     <row r="14" spans="2:20" ht="30" customHeight="1" thickBot="1">
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="74" t="str">
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="24" t="str">
         <f>IF(I13&lt;=50,"(Buruk)",IF(I13&lt;=60,"(Sedang)",IF(I13&lt;=75,"(Cukup)",IF(I13&lt;=90.99,"(Baik)","(Sangat Baik)"))))</f>
         <v>(Baik)</v>
       </c>
-      <c r="J14" s="75"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="53"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="16"/>
     </row>
     <row r="15" spans="2:20" ht="30" customHeight="1">
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="78"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="53"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="149"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="16"/>
     </row>
     <row r="16" spans="2:20" ht="30" customHeight="1">
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="81"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="53"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="136"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="16"/>
     </row>
     <row r="17" spans="2:20" ht="30" customHeight="1">
-      <c r="B17" s="79"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="81"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="53"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="136"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="16"/>
     </row>
     <row r="18" spans="2:20" ht="30" customHeight="1">
-      <c r="B18" s="79"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="81"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="53"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="136"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="16"/>
     </row>
     <row r="19" spans="2:20" ht="30" customHeight="1">
-      <c r="B19" s="79"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="81"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="53"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="136"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="16"/>
     </row>
     <row r="20" spans="2:20" ht="30" customHeight="1">
-      <c r="B20" s="79"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="81"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="53"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="136"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="16"/>
     </row>
     <row r="21" spans="2:20" ht="30" customHeight="1">
-      <c r="B21" s="79"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="81"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="53"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="136"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="16"/>
     </row>
     <row r="22" spans="2:20" ht="30" customHeight="1">
-      <c r="B22" s="79"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="81"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="53"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="136"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="16"/>
     </row>
     <row r="23" spans="2:20" ht="30" customHeight="1">
-      <c r="B23" s="85" t="s">
+      <c r="B23" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="89" t="s">
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="90"/>
-      <c r="T23" s="91"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="128"/>
+      <c r="O23" s="128"/>
+      <c r="P23" s="128"/>
+      <c r="Q23" s="128"/>
+      <c r="R23" s="128"/>
+      <c r="S23" s="128"/>
+      <c r="T23" s="129"/>
     </row>
     <row r="24" spans="2:20" ht="30" customHeight="1" thickBot="1">
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="94"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="97"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="132"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="32"/>
     </row>
     <row r="25" spans="2:20" ht="15">
-      <c r="K25" s="98"/>
-      <c r="L25" s="52"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="15"/>
     </row>
     <row r="26" spans="2:20" ht="15.75" thickBot="1">
-      <c r="K26" s="98"/>
-      <c r="L26" s="52"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="15"/>
     </row>
     <row r="27" spans="2:20" ht="15">
-      <c r="B27" s="99"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="101"/>
-      <c r="K27" s="98"/>
-      <c r="L27" s="52"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="36"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="15"/>
     </row>
     <row r="28" spans="2:20" ht="15.75">
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="103" t="s">
+      <c r="C28" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="53"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="52"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="16"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="15"/>
     </row>
     <row r="29" spans="2:20" ht="15">
-      <c r="B29" s="82"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
-      <c r="K29" s="98"/>
-      <c r="L29" s="52"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="16"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="15"/>
     </row>
     <row r="30" spans="2:20" ht="15">
-      <c r="B30" s="82"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="52"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="16"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="15"/>
     </row>
     <row r="31" spans="2:20" ht="15">
-      <c r="B31" s="82"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="52"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="16"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="15"/>
     </row>
     <row r="32" spans="2:20" ht="18.75">
-      <c r="B32" s="82"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="53"/>
-      <c r="K32" s="106" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="16"/>
+      <c r="K32" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="L32" s="106"/>
-      <c r="M32" s="106"/>
-      <c r="N32" s="106"/>
-      <c r="O32" s="106"/>
-      <c r="P32" s="106"/>
-      <c r="Q32" s="106"/>
-      <c r="R32" s="106"/>
-      <c r="S32" s="106"/>
-      <c r="T32" s="106"/>
+      <c r="L32" s="133"/>
+      <c r="M32" s="133"/>
+      <c r="N32" s="133"/>
+      <c r="O32" s="133"/>
+      <c r="P32" s="133"/>
+      <c r="Q32" s="133"/>
+      <c r="R32" s="133"/>
+      <c r="S32" s="133"/>
+      <c r="T32" s="133"/>
     </row>
     <row r="33" spans="2:20" ht="18.75">
-      <c r="B33" s="82"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
-      <c r="K33" s="106" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="16"/>
+      <c r="K33" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="106"/>
-      <c r="M33" s="106"/>
-      <c r="N33" s="106"/>
-      <c r="O33" s="106"/>
-      <c r="P33" s="106"/>
-      <c r="Q33" s="106"/>
-      <c r="R33" s="106"/>
-      <c r="S33" s="106"/>
-      <c r="T33" s="106"/>
+      <c r="L33" s="133"/>
+      <c r="M33" s="133"/>
+      <c r="N33" s="133"/>
+      <c r="O33" s="133"/>
+      <c r="P33" s="133"/>
+      <c r="Q33" s="133"/>
+      <c r="R33" s="133"/>
+      <c r="S33" s="133"/>
+      <c r="T33" s="133"/>
     </row>
     <row r="34" spans="2:20">
-      <c r="B34" s="82"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="53"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="16"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
     </row>
     <row r="35" spans="2:20" ht="15.75">
-      <c r="B35" s="82"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
-      <c r="K35" s="107" t="s">
+      <c r="B35" s="26"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="16"/>
+      <c r="K35" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="L35" s="52"/>
-      <c r="Q35" s="108" t="s">
+      <c r="L35" s="15"/>
+      <c r="Q35" s="42" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="2:20" ht="16.5" thickBot="1">
-      <c r="B36" s="82"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="53"/>
-      <c r="K36" s="109" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="16"/>
+      <c r="K36" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="P36" s="110"/>
-      <c r="Q36" s="108" t="s">
+      <c r="P36" s="44"/>
+      <c r="Q36" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="R36" s="108" t="s">
+      <c r="R36" s="42" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37" spans="2:20" ht="30" customHeight="1">
-      <c r="B37" s="82"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="53"/>
-      <c r="K37" s="111" t="s">
+      <c r="B37" s="26"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="16"/>
+      <c r="K37" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="L37" s="112" t="s">
+      <c r="L37" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="M37" s="113"/>
-      <c r="N37" s="113"/>
-      <c r="O37" s="113"/>
-      <c r="P37" s="113"/>
-      <c r="Q37" s="113"/>
-      <c r="R37" s="113"/>
-      <c r="S37" s="113"/>
-      <c r="T37" s="114"/>
+      <c r="M37" s="116"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="116"/>
+      <c r="P37" s="116"/>
+      <c r="Q37" s="116"/>
+      <c r="R37" s="116"/>
+      <c r="S37" s="116"/>
+      <c r="T37" s="117"/>
     </row>
     <row r="38" spans="2:20" ht="30" customHeight="1" thickBot="1">
-      <c r="B38" s="115"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="97"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="117" t="s">
+      <c r="B38" s="45"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="32"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="M38" s="118"/>
-      <c r="N38" s="118"/>
-      <c r="O38" s="119"/>
+      <c r="M38" s="101"/>
+      <c r="N38" s="101"/>
+      <c r="O38" s="102"/>
       <c r="P38" s="120" t="str">
         <f>[1]SKP!I5</f>
         <v>AGUSTINA B, S.Pd.Ind</v>
@@ -6733,23 +6733,23 @@
       <c r="T38" s="122"/>
     </row>
     <row r="39" spans="2:20" ht="30" customHeight="1">
-      <c r="B39" s="99"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="123" t="s">
+      <c r="B39" s="34"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="101"/>
-      <c r="K39" s="116"/>
-      <c r="L39" s="117" t="s">
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="36"/>
+      <c r="K39" s="113"/>
+      <c r="L39" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="M39" s="118"/>
-      <c r="N39" s="118"/>
-      <c r="O39" s="119"/>
+      <c r="M39" s="101"/>
+      <c r="N39" s="101"/>
+      <c r="O39" s="102"/>
       <c r="P39" s="120" t="str">
         <f>[1]SKP!I6</f>
         <v>19650801 198903 2 013</v>
@@ -6760,23 +6760,23 @@
       <c r="T39" s="122"/>
     </row>
     <row r="40" spans="2:20" ht="30" customHeight="1">
-      <c r="B40" s="82"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="124" t="s">
+      <c r="B40" s="26"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="125"/>
-      <c r="K40" s="116"/>
-      <c r="L40" s="117" t="s">
+      <c r="F40" s="118"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="119"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="M40" s="118"/>
-      <c r="N40" s="118"/>
-      <c r="O40" s="119"/>
+      <c r="M40" s="101"/>
+      <c r="N40" s="101"/>
+      <c r="O40" s="102"/>
       <c r="P40" s="120" t="str">
         <f>[1]SKP!I7</f>
         <v>Pembina  / IVa</v>
@@ -6787,21 +6787,21 @@
       <c r="T40" s="122"/>
     </row>
     <row r="41" spans="2:20" ht="30" customHeight="1">
-      <c r="B41" s="82"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="53"/>
-      <c r="K41" s="116"/>
-      <c r="L41" s="117" t="s">
+      <c r="B41" s="26"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="16"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="M41" s="118"/>
-      <c r="N41" s="118"/>
-      <c r="O41" s="119"/>
+      <c r="M41" s="101"/>
+      <c r="N41" s="101"/>
+      <c r="O41" s="102"/>
       <c r="P41" s="120" t="str">
         <f>[1]SKP!I8</f>
         <v>Guru</v>
@@ -6812,80 +6812,80 @@
       <c r="T41" s="122"/>
     </row>
     <row r="42" spans="2:20" ht="30" customHeight="1" thickBot="1">
-      <c r="B42" s="82"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="126" t="str">
+      <c r="B42" s="26"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="98" t="str">
         <f>[1]SKP!D5</f>
         <v>H. YAHYA, S.Pd</v>
       </c>
-      <c r="F42" s="126"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="127"/>
-      <c r="K42" s="128"/>
-      <c r="L42" s="129" t="s">
+      <c r="F42" s="98"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="99"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="M42" s="130"/>
-      <c r="N42" s="130"/>
-      <c r="O42" s="131"/>
-      <c r="P42" s="132" t="str">
+      <c r="M42" s="93"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="94"/>
+      <c r="P42" s="109" t="str">
         <f>[1]SKP!I9</f>
         <v>SMP Negeri 1 Tanjungpinang</v>
       </c>
-      <c r="Q42" s="133"/>
-      <c r="R42" s="133"/>
-      <c r="S42" s="133"/>
-      <c r="T42" s="134"/>
+      <c r="Q42" s="110"/>
+      <c r="R42" s="110"/>
+      <c r="S42" s="110"/>
+      <c r="T42" s="111"/>
     </row>
     <row r="43" spans="2:20" ht="30" customHeight="1">
-      <c r="B43" s="82"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="135" t="str">
+      <c r="B43" s="26"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="106" t="str">
         <f>[1]SKP!D6</f>
         <v>19700314 199512 1 004</v>
       </c>
-      <c r="F43" s="135"/>
-      <c r="G43" s="135"/>
-      <c r="H43" s="135"/>
-      <c r="I43" s="136"/>
-      <c r="K43" s="111" t="s">
+      <c r="F43" s="106"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="107"/>
+      <c r="K43" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="L43" s="112" t="s">
+      <c r="L43" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="M43" s="113"/>
-      <c r="N43" s="113"/>
-      <c r="O43" s="113"/>
-      <c r="P43" s="113"/>
-      <c r="Q43" s="113"/>
-      <c r="R43" s="113"/>
-      <c r="S43" s="113"/>
-      <c r="T43" s="114"/>
+      <c r="M43" s="116"/>
+      <c r="N43" s="116"/>
+      <c r="O43" s="116"/>
+      <c r="P43" s="116"/>
+      <c r="Q43" s="116"/>
+      <c r="R43" s="116"/>
+      <c r="S43" s="116"/>
+      <c r="T43" s="117"/>
     </row>
     <row r="44" spans="2:20" ht="30" customHeight="1">
-      <c r="B44" s="102" t="s">
+      <c r="B44" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="103" t="s">
+      <c r="C44" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="52"/>
-      <c r="E44" s="137"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="137"/>
-      <c r="H44" s="137"/>
-      <c r="I44" s="138"/>
-      <c r="K44" s="116"/>
-      <c r="L44" s="117" t="s">
+      <c r="D44" s="15"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="48"/>
+      <c r="K44" s="113"/>
+      <c r="L44" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="M44" s="118"/>
-      <c r="N44" s="118"/>
-      <c r="O44" s="119"/>
+      <c r="M44" s="101"/>
+      <c r="N44" s="101"/>
+      <c r="O44" s="102"/>
       <c r="P44" s="120" t="str">
         <f>[1]SKP!D5</f>
         <v>H. YAHYA, S.Pd</v>
@@ -6896,23 +6896,23 @@
       <c r="T44" s="122"/>
     </row>
     <row r="45" spans="2:20" ht="30" customHeight="1">
-      <c r="B45" s="102"/>
-      <c r="C45" s="124" t="s">
+      <c r="B45" s="37"/>
+      <c r="C45" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="53"/>
-      <c r="K45" s="116"/>
-      <c r="L45" s="117" t="s">
+      <c r="D45" s="118"/>
+      <c r="E45" s="118"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="16"/>
+      <c r="K45" s="113"/>
+      <c r="L45" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="M45" s="118"/>
-      <c r="N45" s="118"/>
-      <c r="O45" s="119"/>
+      <c r="M45" s="101"/>
+      <c r="N45" s="101"/>
+      <c r="O45" s="102"/>
       <c r="P45" s="120" t="str">
         <f>[1]SKP!D6</f>
         <v>19700314 199512 1 004</v>
@@ -6923,21 +6923,21 @@
       <c r="T45" s="122"/>
     </row>
     <row r="46" spans="2:20" ht="30" customHeight="1">
-      <c r="B46" s="82"/>
-      <c r="C46" s="139"/>
-      <c r="D46" s="140"/>
-      <c r="E46" s="140"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="53"/>
-      <c r="K46" s="116"/>
-      <c r="L46" s="117" t="s">
+      <c r="B46" s="26"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="16"/>
+      <c r="K46" s="113"/>
+      <c r="L46" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="M46" s="118"/>
-      <c r="N46" s="118"/>
-      <c r="O46" s="119"/>
+      <c r="M46" s="101"/>
+      <c r="N46" s="101"/>
+      <c r="O46" s="102"/>
       <c r="P46" s="120" t="str">
         <f>[1]SKP!D7</f>
         <v>Pembina / IVa</v>
@@ -6948,24 +6948,24 @@
       <c r="T46" s="122"/>
     </row>
     <row r="47" spans="2:20" ht="30" customHeight="1">
-      <c r="B47" s="82"/>
-      <c r="C47" s="141" t="str">
+      <c r="B47" s="26"/>
+      <c r="C47" s="123" t="str">
         <f>[1]SKP!I5</f>
         <v>AGUSTINA B, S.Pd.Ind</v>
       </c>
-      <c r="D47" s="141"/>
-      <c r="E47" s="141"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="53"/>
-      <c r="K47" s="116"/>
-      <c r="L47" s="117" t="s">
+      <c r="D47" s="123"/>
+      <c r="E47" s="123"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="16"/>
+      <c r="K47" s="113"/>
+      <c r="L47" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="M47" s="118"/>
-      <c r="N47" s="118"/>
-      <c r="O47" s="119"/>
+      <c r="M47" s="101"/>
+      <c r="N47" s="101"/>
+      <c r="O47" s="102"/>
       <c r="P47" s="120" t="str">
         <f>[1]SKP!D8</f>
         <v>Kepala Sekolah</v>
@@ -6976,197 +6976,257 @@
       <c r="T47" s="122"/>
     </row>
     <row r="48" spans="2:20" ht="30" customHeight="1" thickBot="1">
-      <c r="B48" s="82"/>
-      <c r="C48" s="142" t="str">
+      <c r="B48" s="26"/>
+      <c r="C48" s="108" t="str">
         <f>[1]SKP!I6</f>
         <v>19650801 198903 2 013</v>
       </c>
-      <c r="D48" s="142"/>
-      <c r="E48" s="142"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="53"/>
-      <c r="K48" s="128"/>
-      <c r="L48" s="129" t="s">
+      <c r="D48" s="108"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="16"/>
+      <c r="K48" s="114"/>
+      <c r="L48" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="M48" s="130"/>
-      <c r="N48" s="130"/>
-      <c r="O48" s="131"/>
-      <c r="P48" s="132" t="str">
+      <c r="M48" s="93"/>
+      <c r="N48" s="93"/>
+      <c r="O48" s="94"/>
+      <c r="P48" s="109" t="str">
         <f>[1]SKP!D9</f>
         <v>SMP Negeri 1 Tanjungpinang</v>
       </c>
-      <c r="Q48" s="133"/>
-      <c r="R48" s="133"/>
-      <c r="S48" s="133"/>
-      <c r="T48" s="134"/>
+      <c r="Q48" s="110"/>
+      <c r="R48" s="110"/>
+      <c r="S48" s="110"/>
+      <c r="T48" s="111"/>
     </row>
     <row r="49" spans="2:20" ht="30" customHeight="1">
-      <c r="B49" s="82"/>
-      <c r="C49" s="143"/>
-      <c r="D49" s="143"/>
-      <c r="E49" s="144" t="s">
+      <c r="B49" s="26"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="53"/>
-      <c r="K49" s="111" t="s">
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="16"/>
+      <c r="K49" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="L49" s="112" t="s">
+      <c r="L49" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="M49" s="113"/>
-      <c r="N49" s="113"/>
-      <c r="O49" s="113"/>
-      <c r="P49" s="113"/>
-      <c r="Q49" s="113"/>
-      <c r="R49" s="113"/>
-      <c r="S49" s="113"/>
-      <c r="T49" s="114"/>
+      <c r="M49" s="116"/>
+      <c r="N49" s="116"/>
+      <c r="O49" s="116"/>
+      <c r="P49" s="116"/>
+      <c r="Q49" s="116"/>
+      <c r="R49" s="116"/>
+      <c r="S49" s="116"/>
+      <c r="T49" s="117"/>
     </row>
     <row r="50" spans="2:20" ht="30" customHeight="1">
-      <c r="B50" s="82"/>
-      <c r="C50" s="145"/>
-      <c r="D50" s="145"/>
-      <c r="E50" s="124" t="s">
+      <c r="B50" s="26"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="F50" s="124"/>
-      <c r="G50" s="124"/>
-      <c r="H50" s="124"/>
-      <c r="I50" s="125"/>
-      <c r="K50" s="116"/>
-      <c r="L50" s="117" t="s">
+      <c r="F50" s="118"/>
+      <c r="G50" s="118"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="119"/>
+      <c r="K50" s="113"/>
+      <c r="L50" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="M50" s="118"/>
-      <c r="N50" s="118"/>
-      <c r="O50" s="119"/>
-      <c r="P50" s="146" t="s">
+      <c r="M50" s="101"/>
+      <c r="N50" s="101"/>
+      <c r="O50" s="102"/>
+      <c r="P50" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="Q50" s="147"/>
-      <c r="R50" s="147"/>
-      <c r="S50" s="147"/>
-      <c r="T50" s="148"/>
+      <c r="Q50" s="104"/>
+      <c r="R50" s="104"/>
+      <c r="S50" s="104"/>
+      <c r="T50" s="105"/>
     </row>
     <row r="51" spans="2:20" ht="30" customHeight="1">
-      <c r="B51" s="82"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="53"/>
-      <c r="K51" s="116"/>
-      <c r="L51" s="117" t="s">
+      <c r="B51" s="26"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="16"/>
+      <c r="K51" s="113"/>
+      <c r="L51" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="M51" s="118"/>
-      <c r="N51" s="118"/>
-      <c r="O51" s="119"/>
-      <c r="P51" s="146" t="s">
+      <c r="M51" s="101"/>
+      <c r="N51" s="101"/>
+      <c r="O51" s="102"/>
+      <c r="P51" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="Q51" s="147"/>
-      <c r="R51" s="147"/>
-      <c r="S51" s="147"/>
-      <c r="T51" s="148"/>
+      <c r="Q51" s="104"/>
+      <c r="R51" s="104"/>
+      <c r="S51" s="104"/>
+      <c r="T51" s="105"/>
     </row>
     <row r="52" spans="2:20" ht="30" customHeight="1">
-      <c r="B52" s="82"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="126" t="str">
+      <c r="B52" s="26"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="98" t="str">
         <f>P50</f>
         <v>Dra. TATAT HADIYAT</v>
       </c>
-      <c r="F52" s="126"/>
-      <c r="G52" s="126"/>
-      <c r="H52" s="126"/>
-      <c r="I52" s="127"/>
-      <c r="K52" s="116"/>
-      <c r="L52" s="117" t="s">
+      <c r="F52" s="98"/>
+      <c r="G52" s="98"/>
+      <c r="H52" s="98"/>
+      <c r="I52" s="99"/>
+      <c r="K52" s="113"/>
+      <c r="L52" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="M52" s="118"/>
-      <c r="N52" s="118"/>
-      <c r="O52" s="119"/>
-      <c r="P52" s="146" t="s">
+      <c r="M52" s="101"/>
+      <c r="N52" s="101"/>
+      <c r="O52" s="102"/>
+      <c r="P52" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="Q52" s="147"/>
-      <c r="R52" s="147"/>
-      <c r="S52" s="147"/>
-      <c r="T52" s="148"/>
+      <c r="Q52" s="104"/>
+      <c r="R52" s="104"/>
+      <c r="S52" s="104"/>
+      <c r="T52" s="105"/>
     </row>
     <row r="53" spans="2:20" ht="30" customHeight="1">
-      <c r="B53" s="82"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="135" t="str">
+      <c r="B53" s="26"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="106" t="str">
         <f>P51</f>
         <v>19641107 199103 2 003</v>
       </c>
-      <c r="F53" s="135"/>
-      <c r="G53" s="135"/>
-      <c r="H53" s="135"/>
-      <c r="I53" s="136"/>
-      <c r="K53" s="116"/>
-      <c r="L53" s="117" t="s">
+      <c r="F53" s="106"/>
+      <c r="G53" s="106"/>
+      <c r="H53" s="106"/>
+      <c r="I53" s="107"/>
+      <c r="K53" s="113"/>
+      <c r="L53" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="M53" s="118"/>
-      <c r="N53" s="118"/>
-      <c r="O53" s="119"/>
-      <c r="P53" s="146" t="s">
+      <c r="M53" s="101"/>
+      <c r="N53" s="101"/>
+      <c r="O53" s="102"/>
+      <c r="P53" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="Q53" s="147"/>
-      <c r="R53" s="147"/>
-      <c r="S53" s="147"/>
-      <c r="T53" s="148"/>
+      <c r="Q53" s="104"/>
+      <c r="R53" s="104"/>
+      <c r="S53" s="104"/>
+      <c r="T53" s="105"/>
     </row>
     <row r="54" spans="2:20" ht="30" customHeight="1" thickBot="1">
-      <c r="B54" s="115"/>
-      <c r="C54" s="96"/>
-      <c r="D54" s="96"/>
-      <c r="E54" s="96"/>
-      <c r="F54" s="96"/>
-      <c r="G54" s="96"/>
-      <c r="H54" s="96"/>
-      <c r="I54" s="97"/>
-      <c r="K54" s="128"/>
-      <c r="L54" s="129" t="s">
+      <c r="B54" s="45"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="32"/>
+      <c r="K54" s="114"/>
+      <c r="L54" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="M54" s="130"/>
-      <c r="N54" s="130"/>
-      <c r="O54" s="131"/>
-      <c r="P54" s="149" t="s">
+      <c r="M54" s="93"/>
+      <c r="N54" s="93"/>
+      <c r="O54" s="94"/>
+      <c r="P54" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="Q54" s="150"/>
-      <c r="R54" s="150"/>
-      <c r="S54" s="150"/>
-      <c r="T54" s="151"/>
+      <c r="Q54" s="96"/>
+      <c r="R54" s="96"/>
+      <c r="S54" s="96"/>
+      <c r="T54" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="L54:O54"/>
-    <mergeCell ref="P54:T54"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="L52:O52"/>
-    <mergeCell ref="P52:T52"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="L53:O53"/>
-    <mergeCell ref="P53:T53"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K3:T3"/>
+    <mergeCell ref="C4:C12"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="K23:T23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="K32:T32"/>
+    <mergeCell ref="K33:T33"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="P40:T40"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="K37:K42"/>
+    <mergeCell ref="L37:T37"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="K43:K48"/>
+    <mergeCell ref="L43:T43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="P44:T44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="P45:T45"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="P46:T46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="P47:T47"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="L48:O48"/>
     <mergeCell ref="P48:T48"/>
@@ -7177,74 +7237,14 @@
     <mergeCell ref="P50:T50"/>
     <mergeCell ref="L51:O51"/>
     <mergeCell ref="P51:T51"/>
-    <mergeCell ref="P45:T45"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="P46:T46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="P47:T47"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="K43:K48"/>
-    <mergeCell ref="L43:T43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="P44:T44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="P40:T40"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="K23:T23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="K32:T32"/>
-    <mergeCell ref="K33:T33"/>
-    <mergeCell ref="K37:K42"/>
-    <mergeCell ref="L37:T37"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="P38:T38"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B2:B12"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K3:T3"/>
-    <mergeCell ref="C4:C12"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="P54:T54"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="P52:T52"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="P53:T53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7255,16 +7255,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B24" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="192" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="68" customWidth="1"/>
     <col min="3" max="3" width="97.28515625" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="193"/>
+    <col min="5" max="6" width="9.140625" style="69"/>
     <col min="258" max="258" width="18.140625" customWidth="1"/>
     <col min="259" max="259" width="97.28515625" customWidth="1"/>
     <col min="514" max="514" width="18.140625" customWidth="1"/>
@@ -7394,943 +7394,977 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="199"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="4" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="183" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="187" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="185"/>
-      <c r="D4" s="194" t="s">
+      <c r="C4" s="188"/>
+      <c r="D4" s="184" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="195"/>
-      <c r="F4" s="196"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="186"/>
     </row>
     <row r="5" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A5" s="152"/>
-      <c r="B5" s="186"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="153">
+      <c r="A5" s="183"/>
+      <c r="B5" s="189"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="54">
         <v>0</v>
       </c>
-      <c r="E5" s="153">
+      <c r="E5" s="54">
         <v>1</v>
       </c>
-      <c r="F5" s="153">
+      <c r="F5" s="54">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="188">
+      <c r="B6" s="64">
         <v>1</v>
       </c>
-      <c r="C6" s="155" t="s">
+      <c r="C6" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="156"/>
-      <c r="E6" s="197"/>
-      <c r="F6" s="197">
+      <c r="D6" s="57"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A7" s="157" t="s">
+      <c r="A7" s="171" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="189">
+      <c r="B7" s="65">
         <v>2</v>
       </c>
-      <c r="C7" s="155" t="s">
+      <c r="C7" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="156"/>
-      <c r="E7" s="197"/>
-      <c r="F7" s="197">
+      <c r="D7" s="57"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A8" s="157"/>
-      <c r="B8" s="188">
+      <c r="A8" s="171"/>
+      <c r="B8" s="64">
         <v>3</v>
       </c>
-      <c r="C8" s="155" t="s">
+      <c r="C8" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="156"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="197">
+      <c r="D8" s="57"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A9" s="157"/>
-      <c r="B9" s="189">
+      <c r="A9" s="171"/>
+      <c r="B9" s="65">
         <v>4</v>
       </c>
-      <c r="C9" s="155" t="s">
+      <c r="C9" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="197"/>
-      <c r="F9" s="197">
+      <c r="D9" s="57"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A10" s="157"/>
-      <c r="B10" s="188">
+      <c r="A10" s="171"/>
+      <c r="B10" s="64">
         <v>5</v>
       </c>
-      <c r="C10" s="155" t="s">
+      <c r="C10" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="156"/>
-      <c r="E10" s="197">
+      <c r="D10" s="57"/>
+      <c r="E10" s="70">
         <v>1</v>
       </c>
-      <c r="F10" s="197"/>
+      <c r="F10" s="70"/>
     </row>
     <row r="11" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A11" s="157"/>
-      <c r="B11" s="189">
+      <c r="A11" s="171"/>
+      <c r="B11" s="65">
         <v>6</v>
       </c>
-      <c r="C11" s="158" t="s">
+      <c r="C11" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="156"/>
-      <c r="E11" s="197">
+      <c r="D11" s="57"/>
+      <c r="E11" s="70">
         <v>1</v>
       </c>
-      <c r="F11" s="198"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="172"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="192"/>
+      <c r="H11" s="193"/>
     </row>
     <row r="12" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A12" s="157"/>
-      <c r="B12" s="188">
+      <c r="A12" s="171"/>
+      <c r="B12" s="64">
         <v>7</v>
       </c>
-      <c r="C12" s="158" t="s">
+      <c r="C12" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="156"/>
-      <c r="E12" s="197"/>
-      <c r="F12" s="197">
+      <c r="D12" s="57"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A13" s="159"/>
-      <c r="B13" s="189">
+      <c r="A13" s="191"/>
+      <c r="B13" s="65">
         <v>8</v>
       </c>
-      <c r="C13" s="158" t="s">
+      <c r="C13" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="156"/>
-      <c r="E13" s="197"/>
-      <c r="F13" s="197">
+      <c r="D13" s="57"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A14" s="160" t="s">
+      <c r="A14" s="172" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="160"/>
-      <c r="C14" s="160"/>
-      <c r="D14" s="161">
+      <c r="B14" s="172"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="194">
         <f>SUM(D6:F13)</f>
         <v>14</v>
       </c>
-      <c r="E14" s="162"/>
-      <c r="F14" s="163"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="196"/>
     </row>
     <row r="15" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A15" s="160" t="s">
+      <c r="A15" s="172" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="160"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="161">
+      <c r="B15" s="172"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="194">
         <v>16</v>
       </c>
-      <c r="E15" s="162"/>
-      <c r="F15" s="163"/>
+      <c r="E15" s="195"/>
+      <c r="F15" s="196"/>
     </row>
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A16" s="164" t="s">
+      <c r="A16" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="188"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="161" t="str">
+      <c r="B16" s="64"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="194" t="str">
         <f>IF(D17&lt;=50,"(Buruk)",IF(D17&lt;=60,"(Sedang)",IF(D17&lt;=75,"(Cukup)",IF(D17&lt;=90.99,"(Baik)","(Baik Sekali)"))))</f>
         <v>(Baik)</v>
       </c>
-      <c r="E16" s="162"/>
-      <c r="F16" s="163"/>
+      <c r="E16" s="195"/>
+      <c r="F16" s="196"/>
     </row>
     <row r="17" spans="1:6" ht="51.75" customHeight="1">
-      <c r="A17" s="165"/>
-      <c r="B17" s="191"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="167">
+      <c r="A17" s="60"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="197">
         <f>SUM(D14/D15)*100</f>
         <v>87.5</v>
       </c>
-      <c r="E17" s="168"/>
-      <c r="F17" s="169"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="199"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="173"/>
-      <c r="C18" s="173"/>
+      <c r="A18" s="63"/>
+      <c r="C18" s="63"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="173"/>
-      <c r="C19" s="173"/>
+      <c r="A19" s="63"/>
+      <c r="C19" s="63"/>
     </row>
     <row r="20" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A20" s="152" t="s">
+      <c r="A20" s="183" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="184" t="s">
+      <c r="B20" s="187" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="185"/>
-      <c r="D20" s="194" t="s">
+      <c r="C20" s="188"/>
+      <c r="D20" s="184" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="195"/>
-      <c r="F20" s="196"/>
+      <c r="E20" s="185"/>
+      <c r="F20" s="186"/>
     </row>
     <row r="21" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A21" s="152"/>
-      <c r="B21" s="186"/>
-      <c r="C21" s="187"/>
-      <c r="D21" s="153">
+      <c r="A21" s="183"/>
+      <c r="B21" s="189"/>
+      <c r="C21" s="190"/>
+      <c r="D21" s="54">
         <v>0</v>
       </c>
-      <c r="E21" s="153">
+      <c r="E21" s="54">
         <v>1</v>
       </c>
-      <c r="F21" s="153">
+      <c r="F21" s="54">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A22" s="154" t="s">
+      <c r="A22" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="188">
+      <c r="B22" s="64">
         <v>1</v>
       </c>
-      <c r="C22" s="155" t="s">
+      <c r="C22" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="156"/>
-      <c r="E22" s="197">
+      <c r="D22" s="57"/>
+      <c r="E22" s="70">
         <v>1</v>
       </c>
-      <c r="F22" s="197"/>
+      <c r="F22" s="70"/>
     </row>
     <row r="23" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A23" s="157" t="s">
+      <c r="A23" s="171" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="189">
+      <c r="B23" s="65">
         <v>2</v>
       </c>
-      <c r="C23" s="155" t="s">
+      <c r="C23" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="156"/>
-      <c r="E23" s="197"/>
-      <c r="F23" s="197">
+      <c r="D23" s="57"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A24" s="157"/>
-      <c r="B24" s="188">
+      <c r="A24" s="171"/>
+      <c r="B24" s="64">
         <v>3</v>
       </c>
-      <c r="C24" s="155" t="s">
+      <c r="C24" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="156"/>
-      <c r="E24" s="197"/>
-      <c r="F24" s="197">
+      <c r="D24" s="57"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A25" s="157"/>
-      <c r="B25" s="189">
+      <c r="A25" s="171"/>
+      <c r="B25" s="65">
         <v>4</v>
       </c>
-      <c r="C25" s="155" t="s">
+      <c r="C25" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="156"/>
-      <c r="E25" s="197">
+      <c r="D25" s="57"/>
+      <c r="E25" s="70">
         <v>1</v>
       </c>
-      <c r="F25" s="197"/>
+      <c r="F25" s="70"/>
     </row>
     <row r="26" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A26" s="157"/>
-      <c r="B26" s="188">
+      <c r="A26" s="171"/>
+      <c r="B26" s="64">
         <v>5</v>
       </c>
-      <c r="C26" s="155" t="s">
+      <c r="C26" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="156"/>
-      <c r="E26" s="197">
+      <c r="D26" s="57"/>
+      <c r="E26" s="70">
         <v>1</v>
       </c>
-      <c r="F26" s="197"/>
+      <c r="F26" s="70"/>
     </row>
     <row r="27" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A27" s="157"/>
-      <c r="B27" s="189">
+      <c r="A27" s="171"/>
+      <c r="B27" s="65">
         <v>6</v>
       </c>
-      <c r="C27" s="155" t="s">
+      <c r="C27" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="156"/>
-      <c r="E27" s="197">
+      <c r="D27" s="57"/>
+      <c r="E27" s="70">
         <v>1</v>
       </c>
-      <c r="F27" s="197"/>
+      <c r="F27" s="70"/>
     </row>
     <row r="28" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A28" s="157"/>
-      <c r="B28" s="188">
+      <c r="A28" s="171"/>
+      <c r="B28" s="64">
         <v>7</v>
       </c>
-      <c r="C28" s="155" t="s">
+      <c r="C28" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="156"/>
-      <c r="E28" s="197"/>
-      <c r="F28" s="197">
+      <c r="D28" s="57"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A29" s="157"/>
-      <c r="B29" s="189">
+      <c r="A29" s="171"/>
+      <c r="B29" s="65">
         <v>8</v>
       </c>
-      <c r="C29" s="155" t="s">
+      <c r="C29" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="156"/>
-      <c r="E29" s="197"/>
-      <c r="F29" s="197">
+      <c r="D29" s="57"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A30" s="157"/>
-      <c r="B30" s="188">
+      <c r="A30" s="171"/>
+      <c r="B30" s="64">
         <v>9</v>
       </c>
-      <c r="C30" s="155" t="s">
+      <c r="C30" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="156"/>
-      <c r="E30" s="197"/>
-      <c r="F30" s="197">
+      <c r="D30" s="57"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A31" s="159"/>
-      <c r="B31" s="189">
+      <c r="A31" s="191"/>
+      <c r="B31" s="65">
         <v>10</v>
       </c>
-      <c r="C31" s="155" t="s">
+      <c r="C31" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="156"/>
-      <c r="E31" s="197"/>
-      <c r="F31" s="197">
+      <c r="D31" s="57"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A32" s="160" t="s">
+      <c r="A32" s="172" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="160"/>
-      <c r="C32" s="160"/>
-      <c r="D32" s="174">
+      <c r="B32" s="172"/>
+      <c r="C32" s="172"/>
+      <c r="D32" s="173">
         <f>SUM(D22:F31)</f>
         <v>16</v>
       </c>
-      <c r="E32" s="175"/>
-      <c r="F32" s="176"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="175"/>
     </row>
     <row r="33" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A33" s="160" t="s">
+      <c r="A33" s="172" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="160"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="174">
+      <c r="B33" s="172"/>
+      <c r="C33" s="172"/>
+      <c r="D33" s="173">
         <v>20</v>
       </c>
-      <c r="E33" s="175"/>
-      <c r="F33" s="176"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="175"/>
     </row>
     <row r="34" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A34" s="177" t="s">
+      <c r="A34" s="176" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="177"/>
-      <c r="C34" s="178"/>
-      <c r="D34" s="174" t="str">
+      <c r="B34" s="176"/>
+      <c r="C34" s="177"/>
+      <c r="D34" s="173" t="str">
         <f>IF(D35&lt;=50,"(Buruk)",IF(D35&lt;=60,"(Sedang)",IF(D35&lt;=75,"(Cukup)",IF(D35&lt;=90.99,"(Baik)","(Baik Sekali)"))))</f>
         <v>(Baik)</v>
       </c>
-      <c r="E34" s="175"/>
-      <c r="F34" s="176"/>
+      <c r="E34" s="174"/>
+      <c r="F34" s="175"/>
     </row>
     <row r="35" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A35" s="179"/>
-      <c r="B35" s="179"/>
-      <c r="C35" s="180"/>
-      <c r="D35" s="174">
+      <c r="A35" s="178"/>
+      <c r="B35" s="178"/>
+      <c r="C35" s="179"/>
+      <c r="D35" s="173">
         <f>SUM(D32/D33)*100</f>
         <v>80</v>
       </c>
-      <c r="E35" s="175"/>
-      <c r="F35" s="176"/>
+      <c r="E35" s="174"/>
+      <c r="F35" s="175"/>
     </row>
     <row r="38" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A38" s="152" t="s">
+      <c r="A38" s="183" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="184" t="s">
+      <c r="B38" s="187" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="185"/>
-      <c r="D38" s="194" t="s">
+      <c r="C38" s="188"/>
+      <c r="D38" s="184" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="195"/>
-      <c r="F38" s="196"/>
+      <c r="E38" s="185"/>
+      <c r="F38" s="186"/>
     </row>
     <row r="39" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A39" s="152"/>
-      <c r="B39" s="186"/>
-      <c r="C39" s="187"/>
-      <c r="D39" s="153">
+      <c r="A39" s="183"/>
+      <c r="B39" s="189"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="54">
         <v>0</v>
       </c>
-      <c r="E39" s="153">
+      <c r="E39" s="54">
         <v>1</v>
       </c>
-      <c r="F39" s="153">
+      <c r="F39" s="54">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A40" s="154" t="s">
+      <c r="A40" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="188">
+      <c r="B40" s="64">
         <v>1</v>
       </c>
-      <c r="C40" s="155" t="s">
+      <c r="C40" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="156"/>
-      <c r="E40" s="197"/>
-      <c r="F40" s="197">
+      <c r="D40" s="57"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A41" s="157" t="s">
+      <c r="A41" s="171" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="189">
+      <c r="B41" s="65">
         <v>2</v>
       </c>
-      <c r="C41" s="155" t="s">
+      <c r="C41" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="156"/>
-      <c r="E41" s="197"/>
-      <c r="F41" s="197">
+      <c r="D41" s="57"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A42" s="157"/>
-      <c r="B42" s="188">
+      <c r="A42" s="171"/>
+      <c r="B42" s="64">
         <v>3</v>
       </c>
-      <c r="C42" s="155" t="s">
+      <c r="C42" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="156"/>
-      <c r="E42" s="197"/>
-      <c r="F42" s="197">
+      <c r="D42" s="57"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A43" s="157"/>
-      <c r="B43" s="189">
+      <c r="A43" s="171"/>
+      <c r="B43" s="65">
         <v>4</v>
       </c>
-      <c r="C43" s="155" t="s">
+      <c r="C43" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="156"/>
-      <c r="E43" s="197"/>
-      <c r="F43" s="197">
+      <c r="D43" s="57"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A44" s="157"/>
-      <c r="B44" s="188">
+      <c r="A44" s="171"/>
+      <c r="B44" s="64">
         <v>5</v>
       </c>
-      <c r="C44" s="155" t="s">
+      <c r="C44" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="156"/>
-      <c r="E44" s="197">
+      <c r="D44" s="57"/>
+      <c r="E44" s="70">
         <v>1</v>
       </c>
-      <c r="F44" s="197"/>
+      <c r="F44" s="70"/>
     </row>
     <row r="45" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A45" s="157"/>
-      <c r="B45" s="189">
+      <c r="A45" s="171"/>
+      <c r="B45" s="65">
         <v>6</v>
       </c>
-      <c r="C45" s="155" t="s">
+      <c r="C45" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="156"/>
-      <c r="E45" s="197"/>
-      <c r="F45" s="197">
+      <c r="D45" s="57"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A46" s="157"/>
-      <c r="B46" s="188">
+      <c r="A46" s="171"/>
+      <c r="B46" s="64">
         <v>7</v>
       </c>
-      <c r="C46" s="155" t="s">
+      <c r="C46" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="156"/>
-      <c r="E46" s="197">
+      <c r="D46" s="57"/>
+      <c r="E46" s="70">
         <v>1</v>
       </c>
-      <c r="F46" s="197"/>
+      <c r="F46" s="70"/>
     </row>
     <row r="47" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A47" s="160" t="s">
+      <c r="A47" s="172" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="160"/>
-      <c r="C47" s="160"/>
-      <c r="D47" s="174">
+      <c r="B47" s="172"/>
+      <c r="C47" s="172"/>
+      <c r="D47" s="173">
         <f>SUM(D40:F46)</f>
         <v>12</v>
       </c>
-      <c r="E47" s="175"/>
-      <c r="F47" s="176"/>
+      <c r="E47" s="174"/>
+      <c r="F47" s="175"/>
     </row>
     <row r="48" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A48" s="160" t="s">
+      <c r="A48" s="172" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="160"/>
-      <c r="C48" s="160"/>
-      <c r="D48" s="174">
+      <c r="B48" s="172"/>
+      <c r="C48" s="172"/>
+      <c r="D48" s="173">
         <v>14</v>
       </c>
-      <c r="E48" s="175"/>
-      <c r="F48" s="176"/>
+      <c r="E48" s="174"/>
+      <c r="F48" s="175"/>
     </row>
     <row r="49" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A49" s="177" t="s">
+      <c r="A49" s="176" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="177"/>
-      <c r="C49" s="178"/>
-      <c r="D49" s="174" t="str">
+      <c r="B49" s="176"/>
+      <c r="C49" s="177"/>
+      <c r="D49" s="173" t="str">
         <f>IF(D50&lt;=50,"(Buruk)",IF(D50&lt;=60,"(Sedang)",IF(D50&lt;=75,"(Cukup)",IF(D50&lt;=90.99,"(Baik)","(Baik Sekali)"))))</f>
         <v>(Baik)</v>
       </c>
-      <c r="E49" s="175"/>
-      <c r="F49" s="176"/>
+      <c r="E49" s="174"/>
+      <c r="F49" s="175"/>
     </row>
     <row r="50" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A50" s="179"/>
-      <c r="B50" s="179"/>
-      <c r="C50" s="180"/>
-      <c r="D50" s="181">
+      <c r="A50" s="178"/>
+      <c r="B50" s="178"/>
+      <c r="C50" s="179"/>
+      <c r="D50" s="180">
         <f>SUM(D47/D48)*100</f>
         <v>85.714285714285708</v>
       </c>
-      <c r="E50" s="182"/>
-      <c r="F50" s="183"/>
+      <c r="E50" s="181"/>
+      <c r="F50" s="182"/>
     </row>
     <row r="52" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A52" s="152" t="s">
+      <c r="A52" s="183" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="184" t="s">
+      <c r="B52" s="187" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="185"/>
-      <c r="D52" s="194" t="s">
+      <c r="C52" s="188"/>
+      <c r="D52" s="184" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="195"/>
-      <c r="F52" s="196"/>
+      <c r="E52" s="185"/>
+      <c r="F52" s="186"/>
     </row>
     <row r="53" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A53" s="152"/>
-      <c r="B53" s="186"/>
-      <c r="C53" s="187"/>
-      <c r="D53" s="153">
+      <c r="A53" s="183"/>
+      <c r="B53" s="189"/>
+      <c r="C53" s="190"/>
+      <c r="D53" s="54">
         <v>0</v>
       </c>
-      <c r="E53" s="153">
+      <c r="E53" s="54">
         <v>1</v>
       </c>
-      <c r="F53" s="153">
+      <c r="F53" s="54">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A54" s="154" t="s">
+      <c r="A54" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="B54" s="188">
+      <c r="B54" s="64">
         <v>1</v>
       </c>
-      <c r="C54" s="158" t="s">
+      <c r="C54" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="156"/>
-      <c r="E54" s="197"/>
-      <c r="F54" s="197">
+      <c r="D54" s="57"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A55" s="157" t="s">
+      <c r="A55" s="171" t="s">
         <v>82</v>
       </c>
-      <c r="B55" s="189">
+      <c r="B55" s="65">
         <v>2</v>
       </c>
-      <c r="C55" s="155" t="s">
+      <c r="C55" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="D55" s="156"/>
-      <c r="E55" s="197"/>
-      <c r="F55" s="197">
+      <c r="D55" s="57"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A56" s="157"/>
-      <c r="B56" s="188">
+      <c r="A56" s="171"/>
+      <c r="B56" s="64">
         <v>3</v>
       </c>
-      <c r="C56" s="158" t="s">
+      <c r="C56" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="D56" s="156"/>
-      <c r="E56" s="197"/>
-      <c r="F56" s="197">
+      <c r="D56" s="57"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A57" s="157"/>
-      <c r="B57" s="189">
+      <c r="A57" s="171"/>
+      <c r="B57" s="65">
         <v>4</v>
       </c>
-      <c r="C57" s="155" t="s">
+      <c r="C57" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="D57" s="156"/>
-      <c r="E57" s="197">
+      <c r="D57" s="57"/>
+      <c r="E57" s="70">
         <v>1</v>
       </c>
-      <c r="F57" s="197"/>
+      <c r="F57" s="70"/>
     </row>
     <row r="58" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A58" s="157"/>
-      <c r="B58" s="188">
+      <c r="A58" s="171"/>
+      <c r="B58" s="64">
         <v>5</v>
       </c>
-      <c r="C58" s="158" t="s">
+      <c r="C58" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="D58" s="156"/>
-      <c r="E58" s="197">
+      <c r="D58" s="57"/>
+      <c r="E58" s="70">
         <v>1</v>
       </c>
-      <c r="F58" s="197"/>
+      <c r="F58" s="70"/>
     </row>
     <row r="59" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A59" s="160" t="s">
+      <c r="A59" s="172" t="s">
         <v>73</v>
       </c>
-      <c r="B59" s="160"/>
-      <c r="C59" s="160"/>
-      <c r="D59" s="174">
+      <c r="B59" s="172"/>
+      <c r="C59" s="172"/>
+      <c r="D59" s="173">
         <f>SUM(D54:F58)</f>
         <v>8</v>
       </c>
-      <c r="E59" s="175"/>
-      <c r="F59" s="176"/>
+      <c r="E59" s="174"/>
+      <c r="F59" s="175"/>
     </row>
     <row r="60" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A60" s="160" t="s">
+      <c r="A60" s="172" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="160"/>
-      <c r="C60" s="160"/>
-      <c r="D60" s="174">
+      <c r="B60" s="172"/>
+      <c r="C60" s="172"/>
+      <c r="D60" s="173">
         <v>10</v>
       </c>
-      <c r="E60" s="175"/>
-      <c r="F60" s="176"/>
+      <c r="E60" s="174"/>
+      <c r="F60" s="175"/>
     </row>
     <row r="61" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A61" s="177" t="s">
+      <c r="A61" s="176" t="s">
         <v>75</v>
       </c>
-      <c r="B61" s="177"/>
-      <c r="C61" s="178"/>
-      <c r="D61" s="174" t="str">
+      <c r="B61" s="176"/>
+      <c r="C61" s="177"/>
+      <c r="D61" s="173" t="str">
         <f>IF(D62&lt;=50,"(Buruk)",IF(D62&lt;=60,"(Sedang)",IF(D62&lt;=75,"(Cukup)",IF(D62&lt;=90.99,"(Baik)","(Baik Sekali)"))))</f>
         <v>(Baik)</v>
       </c>
-      <c r="E61" s="175"/>
-      <c r="F61" s="176"/>
+      <c r="E61" s="174"/>
+      <c r="F61" s="175"/>
     </row>
     <row r="62" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A62" s="179"/>
-      <c r="B62" s="179"/>
-      <c r="C62" s="180"/>
-      <c r="D62" s="174">
+      <c r="A62" s="178"/>
+      <c r="B62" s="178"/>
+      <c r="C62" s="179"/>
+      <c r="D62" s="173">
         <f>SUM(D59/D60)*100</f>
         <v>80</v>
       </c>
-      <c r="E62" s="175"/>
-      <c r="F62" s="176"/>
+      <c r="E62" s="174"/>
+      <c r="F62" s="175"/>
     </row>
     <row r="64" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A64" s="152" t="s">
+      <c r="A64" s="183" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="184" t="s">
+      <c r="B64" s="187" t="s">
         <v>69</v>
       </c>
-      <c r="C64" s="185"/>
-      <c r="D64" s="194" t="s">
+      <c r="C64" s="188"/>
+      <c r="D64" s="184" t="s">
         <v>70</v>
       </c>
-      <c r="E64" s="195"/>
-      <c r="F64" s="196"/>
+      <c r="E64" s="185"/>
+      <c r="F64" s="186"/>
     </row>
     <row r="65" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A65" s="152"/>
-      <c r="B65" s="186"/>
-      <c r="C65" s="187"/>
-      <c r="D65" s="153">
+      <c r="A65" s="183"/>
+      <c r="B65" s="189"/>
+      <c r="C65" s="190"/>
+      <c r="D65" s="54">
         <v>0</v>
       </c>
-      <c r="E65" s="153">
+      <c r="E65" s="54">
         <v>1</v>
       </c>
-      <c r="F65" s="153">
+      <c r="F65" s="54">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A66" s="154" t="s">
+      <c r="A66" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="188">
+      <c r="B66" s="64">
         <v>1</v>
       </c>
-      <c r="C66" s="155" t="s">
+      <c r="C66" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="D66" s="156"/>
-      <c r="E66" s="197">
+      <c r="D66" s="57"/>
+      <c r="E66" s="70">
         <v>1</v>
       </c>
-      <c r="F66" s="197"/>
+      <c r="F66" s="70"/>
     </row>
     <row r="67" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A67" s="157" t="s">
+      <c r="A67" s="171" t="s">
         <v>84</v>
       </c>
-      <c r="B67" s="189">
+      <c r="B67" s="65">
         <v>2</v>
       </c>
-      <c r="C67" s="155" t="s">
+      <c r="C67" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="D67" s="156"/>
-      <c r="E67" s="197">
+      <c r="D67" s="57"/>
+      <c r="E67" s="70">
         <v>1</v>
       </c>
-      <c r="F67" s="197"/>
+      <c r="F67" s="70"/>
     </row>
     <row r="68" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A68" s="157"/>
-      <c r="B68" s="188">
+      <c r="A68" s="171"/>
+      <c r="B68" s="64">
         <v>3</v>
       </c>
-      <c r="C68" s="158" t="s">
+      <c r="C68" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="D68" s="156"/>
-      <c r="E68" s="197"/>
-      <c r="F68" s="197">
+      <c r="D68" s="57"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A69" s="157"/>
-      <c r="B69" s="189">
+      <c r="A69" s="171"/>
+      <c r="B69" s="65">
         <v>4</v>
       </c>
-      <c r="C69" s="158" t="s">
+      <c r="C69" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D69" s="156"/>
-      <c r="E69" s="197"/>
-      <c r="F69" s="197">
+      <c r="D69" s="57"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A70" s="157"/>
-      <c r="B70" s="188">
+      <c r="A70" s="171"/>
+      <c r="B70" s="64">
         <v>5</v>
       </c>
-      <c r="C70" s="158" t="s">
+      <c r="C70" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="D70" s="156"/>
-      <c r="E70" s="197">
+      <c r="D70" s="57"/>
+      <c r="E70" s="70">
         <v>1</v>
       </c>
-      <c r="F70" s="197">
+      <c r="F70" s="70">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A71" s="157"/>
-      <c r="B71" s="189">
+      <c r="A71" s="171"/>
+      <c r="B71" s="65">
         <v>6</v>
       </c>
-      <c r="C71" s="155" t="s">
+      <c r="C71" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="D71" s="156"/>
-      <c r="E71" s="197">
+      <c r="D71" s="57"/>
+      <c r="E71" s="70">
         <v>1</v>
       </c>
-      <c r="F71" s="197"/>
+      <c r="F71" s="70"/>
     </row>
     <row r="72" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A72" s="160" t="s">
+      <c r="A72" s="172" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="160"/>
-      <c r="C72" s="160"/>
-      <c r="D72" s="174">
+      <c r="B72" s="172"/>
+      <c r="C72" s="172"/>
+      <c r="D72" s="173">
         <f>SUM(D66:F71)</f>
         <v>10</v>
       </c>
-      <c r="E72" s="175"/>
-      <c r="F72" s="176"/>
+      <c r="E72" s="174"/>
+      <c r="F72" s="175"/>
     </row>
     <row r="73" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A73" s="160" t="s">
+      <c r="A73" s="172" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="160"/>
-      <c r="C73" s="160"/>
-      <c r="D73" s="174">
+      <c r="B73" s="172"/>
+      <c r="C73" s="172"/>
+      <c r="D73" s="173">
         <v>12</v>
       </c>
-      <c r="E73" s="175"/>
-      <c r="F73" s="176"/>
+      <c r="E73" s="174"/>
+      <c r="F73" s="175"/>
     </row>
     <row r="74" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A74" s="177" t="s">
+      <c r="A74" s="176" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="177"/>
-      <c r="C74" s="178"/>
-      <c r="D74" s="174" t="str">
+      <c r="B74" s="176"/>
+      <c r="C74" s="177"/>
+      <c r="D74" s="173" t="str">
         <f>IF(D75&lt;=50,"(Buruk)",IF(D75&lt;=60,"(Sedang)",IF(D75&lt;=75,"(Cukup)",IF(D75&lt;=90.99,"(Baik)","(Baik Sekali)"))))</f>
         <v>(Baik)</v>
       </c>
-      <c r="E74" s="175"/>
-      <c r="F74" s="176"/>
+      <c r="E74" s="174"/>
+      <c r="F74" s="175"/>
     </row>
     <row r="75" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A75" s="179"/>
-      <c r="B75" s="179"/>
-      <c r="C75" s="180"/>
-      <c r="D75" s="181">
+      <c r="A75" s="178"/>
+      <c r="B75" s="178"/>
+      <c r="C75" s="179"/>
+      <c r="D75" s="180">
         <f>SUM(D72/D73)*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="E75" s="182"/>
-      <c r="F75" s="183"/>
+      <c r="E75" s="181"/>
+      <c r="F75" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="A49:C50"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A34:C35"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B38:C39"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="B52:C53"/>
     <mergeCell ref="A74:C75"/>
     <mergeCell ref="D74:F74"/>
     <mergeCell ref="D75:F75"/>
@@ -8342,45 +8376,11 @@
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="D64:F64"/>
     <mergeCell ref="B64:C65"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="B52:C53"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="A49:C50"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="A34:C35"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B38:C39"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="D73:F73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
